--- a/xlsx_files_for_testing_plans_insert_method/test_plan2.xlsx
+++ b/xlsx_files_for_testing_plans_insert_method/test_plan2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0fe71ac194dd8ed/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{BFACA171-7C68-4292-BD09-672B8B97E739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9BCCC1D-0BE7-4B4B-8981-8349922D1926}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{BFACA171-7C68-4292-BD09-672B8B97E739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C83BAE8-C91D-496D-BF82-0472C469E681}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="1185" windowWidth="24465" windowHeight="13830" xr2:uid="{F946F433-AD66-4F40-A79D-B652CB94B1FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>period</t>
   </si>
@@ -42,7 +42,13 @@
     <t>sum</t>
   </si>
   <si>
-    <t>category_id</t>
+    <t>category</t>
+  </si>
+  <si>
+    <t>видача</t>
+  </si>
+  <si>
+    <t>збір</t>
   </si>
 </sst>
 </file>
@@ -82,11 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,7 +448,7 @@
       <c r="B2">
         <v>224000</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -454,7 +459,7 @@
       <c r="B3">
         <v>1209000</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
